--- a/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_TRUST_using_absolute_argument strength_all_withoutbigafs_detailed.xlsx
+++ b/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_TRUST_using_absolute_argument strength_all_withoutbigafs_detailed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rankings\src\main\java\org\tweetyproject\arg\rankings\rankingbasedextension\evaluation\results\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A1A2533F-F48E-47C0-A2CD-4E7389A91A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F9DEE-FD22-449C-9624-D791E881EB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="1995" windowWidth="21600" windowHeight="11295" activeTab="1"/>
+    <workbookView minimized="1" xWindow="22710" yWindow="5025" windowWidth="20700" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold_evaluation_for_TRUST_" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -2488,7 +2488,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2520,7 +2520,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2558,7 +2558,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2608,7 +2608,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2640,7 +2640,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2672,7 +2672,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2714,7 +2714,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2761,7 +2761,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -3667,10 +3667,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4571,10 +4571,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
